--- a/pta_history/treaties_full.xlsx
+++ b/pta_history/treaties_full.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\history_paper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F11E0-58F5-4725-97D4-A2FFFC3277C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4934D-D4EF-4554-9211-D8C39B9CC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9754" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9797" uniqueCount="258">
   <si>
     <t>name</t>
   </si>
@@ -665,7 +665,139 @@
     <t>LNTS</t>
   </si>
   <si>
-    <t>TRACN</t>
+    <t>Agreement on Trade and Commerce</t>
+  </si>
+  <si>
+    <t>Commercial Agreement</t>
+  </si>
+  <si>
+    <t>Commercial Convention</t>
+  </si>
+  <si>
+    <t>Commercial Treaty</t>
+  </si>
+  <si>
+    <t>Trade Agreement</t>
+  </si>
+  <si>
+    <t>Treaty of Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Commerce and Amity</t>
+  </si>
+  <si>
+    <t>Treaty of Commerce and Friendship</t>
+  </si>
+  <si>
+    <t>Treaty of Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Friendship and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Friendship, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Friendship, Navigation and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Navigation and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Peace, Amity and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Peace, Amity, Navigation and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Peace and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Peace, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Peace, Friendship and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Peace, Friendship, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Peace, Friendship, Navigation and Commerce</t>
+  </si>
+  <si>
+    <t>Amity and Navigation Convention</t>
+  </si>
+  <si>
+    <t>Convention on Amity and Commerce</t>
+  </si>
+  <si>
+    <t>Convention on Amity, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Conventuon on Amity and Navigation</t>
+  </si>
+  <si>
+    <t>Convention on Commerce and Amity</t>
+  </si>
+  <si>
+    <t>Convention on Commerce and Friendship</t>
+  </si>
+  <si>
+    <t>Convention on Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Convention on Friendship and Commerce</t>
+  </si>
+  <si>
+    <t>Convention on Friendship, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Convention on Navigation</t>
+  </si>
+  <si>
+    <t>Conventiona on Navigation and Commerce</t>
+  </si>
+  <si>
+    <t>Convention on Peace, Amity and Commerce</t>
+  </si>
+  <si>
+    <t>International Trade (Treaty)</t>
+  </si>
+  <si>
+    <t>Navigation Treaty</t>
+  </si>
+  <si>
+    <t>Treaty of Amity and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Amity, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Amity, Navigation and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Commerce and Customs</t>
+  </si>
+  <si>
+    <t>Treaty of Customs, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Friendship, Amity, Commerce and Navigation</t>
+  </si>
+  <si>
+    <t>Treaty of Commerce and Exchange</t>
+  </si>
+  <si>
+    <t>Treaty of Exchange and Commerce</t>
+  </si>
+  <si>
+    <t>Treaty of Friendship, Exchange and Commerce</t>
+  </si>
+  <si>
+    <t>Declaration Friendship and Navigation</t>
   </si>
 </sst>
 </file>
@@ -957,7 +1089,7 @@
   <dimension ref="A1:Y1248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="A892" sqref="A892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -83095,247 +83227,370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A71EB7-FF22-4BED-AF8F-51C9D8B4EA77}">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B2" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B3" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B4" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B5" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B6" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B7" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B8" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B9" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B10" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.6">
+      <c r="B11" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.6">
+        <v>106</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.6">
+        <v>165</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.6">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.6">
+        <v>156</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
+        <v>185</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
+        <v>36</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+        <v>96</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
+        <v>78</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+        <v>109</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
+        <v>181</v>
+      </c>
+      <c r="B26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
+        <v>204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
+        <v>208</v>
+      </c>
+      <c r="B31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
+        <v>107</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
+        <v>178</v>
+      </c>
+      <c r="B37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A43" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A46" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A47" s="5" t="s">
         <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
